--- a/MicroServices/Business/Business.Host/wwwroot/samples/0743e46d-f404-d416-c1fc-3a155b7dcab6.xlsx
+++ b/MicroServices/Business/Business.Host/wwwroot/samples/0743e46d-f404-d416-c1fc-3a155b7dcab6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SidePorject\TaskManagement\task範本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SidePorject\TaskManagement\task-backend\MicroServices\Business\Business.Host\wwwroot\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E70A7EB-9742-4549-BA77-FE81E4262A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCF730-223F-442C-AECD-DF369D602A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96CE18AD-C517-4EE6-A005-0AB169F23E5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>父任務名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,15 +62,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>語言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子任務名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任務描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C863FFB5-F362-4ADE-A221-46562667270F}">
-  <dimension ref="A3:I3"/>
+  <dimension ref="A3:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -469,10 +477,13 @@
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -480,25 +491,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/MicroServices/Business/Business.Host/wwwroot/samples/0743e46d-f404-d416-c1fc-3a155b7dcab6.xlsx
+++ b/MicroServices/Business/Business.Host/wwwroot/samples/0743e46d-f404-d416-c1fc-3a155b7dcab6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SidePorject\TaskManagement\task-backend\MicroServices\Business\Business.Host\wwwroot\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BCF730-223F-442C-AECD-DF369D602A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4300E724-1732-4EF0-AC9A-4EE0F5CDEB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96CE18AD-C517-4EE6-A005-0AB169F23E5C}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>父任務名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>類別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,23 +58,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子任務名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提醒時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子任務描述</t>
+    <t>父任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任務名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -125,8 +127,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C863FFB5-F362-4ADE-A221-46562667270F}">
-  <dimension ref="A3:K3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -474,48 +479,49 @@
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
